--- a/08 Projekt Management/Risikoanalyse til Fysioapp.xlsx
+++ b/08 Projekt Management/Risikoanalyse til Fysioapp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e36e29eb6b62478d/Dokumenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\OneDrive\IdeaProjects\Foersteaarsprojekt\08 Projekt Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{70DDA779-F3BA-44FE-B412-8CB771366CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A94363D-5963-49B2-8078-DBCC5ADC61C5}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{70DDA779-F3BA-44FE-B412-8CB771366CC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{59771D52-11E6-4956-BDDD-40C37DB7B834}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC5605DF-97FC-4B92-BFD4-91B241BF52EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC5605DF-97FC-4B92-BFD4-91B241BF52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Risiko</t>
   </si>
@@ -87,12 +85,6 @@
     <t>Kundemøde bliver aflyst mere end en gang</t>
   </si>
   <si>
-    <t>En person er fraværende mere en to dage</t>
-  </si>
-  <si>
-    <t>Mere end to personer er fraværende mere en to dage</t>
-  </si>
-  <si>
     <t>En person er fraværende en dag til to dage</t>
   </si>
   <si>
@@ -153,9 +145,6 @@
     <t>Kundemøde er vigtig for udviklingsprocessen, da vi skal vide hvad kunden gerne vil have/ikke vil have i projektet. Hvis der ikke er mulighed for at holde kundemøde eller et møde bliver misset</t>
   </si>
   <si>
-    <t>så er konsekvenserne ret alvorligt, Kunden kunne blive ultilfreds og vælge at ikke fortsætte med gruppen, eller projektet kunne ende med at den ikke opfylder kravene for hvad kunden ville have.</t>
-  </si>
-  <si>
     <t>Det man kan gøre for at forbygge dette problem er at hvis man har på fornemelsen af at det ikke bliver muligt at møde den dag man har det planlagt at man kontakter kunden og spørger om en</t>
   </si>
   <si>
@@ -171,9 +160,6 @@
     <t xml:space="preserve">som kunne have været brugt til noget andet. Det man kan gøre for at forebygge redigering er at man har en af de andre gruppe medlemmer som reviewer under processen af at lave dem, hvilket </t>
   </si>
   <si>
-    <t>gør at der er højere sandsynlighed for at artefaktet er rigtigt. Det andede man kunne gøre er at man giver den videre til et andet gruppe medlem hvis man ikke føler sig sikker på den specifikke artefakt.</t>
-  </si>
-  <si>
     <t>hvis en eller flere personer er fraværende i en eller flere dage kan det have konsekvenser for hastigheden af projektet, hvilket så kan gøre at vi er nødt til at skære ned i funktionaliten</t>
   </si>
   <si>
@@ -183,18 +169,9 @@
     <t>eller gruppen kan forberede ved at de ved hvem har hvad i to-do listen, da der er en to-do liste som opdateres dagligt, og kan arbejde udfra dette.</t>
   </si>
   <si>
-    <t>Koden viser sig ikke at kan kommunikere med hinanden</t>
-  </si>
-  <si>
-    <t>Prototypen virker ikke</t>
-  </si>
-  <si>
     <t>Rapport bliver ikke skrevet en eller flere gange</t>
   </si>
   <si>
-    <t>Tid spildes på retning</t>
-  </si>
-  <si>
     <t>Rapport skrivning</t>
   </si>
   <si>
@@ -207,18 +184,6 @@
     <t>Gruppemedlemmet kan også vælge at sige at de ikke kan finde ud af den sektion af rapporten som de er blevet tildelt, og vælger derved at give den videre til et gruppe medlem som har mere styr på emnet.</t>
   </si>
   <si>
-    <t>Tommy bliver syg</t>
-  </si>
-  <si>
-    <t>Projektet dør</t>
-  </si>
-  <si>
-    <t>Strømafbrydelse</t>
-  </si>
-  <si>
-    <t>Et eller flere medlemmer kan ikke arbejde på projektet</t>
-  </si>
-  <si>
     <t>Ingen vejledning til rapport</t>
   </si>
   <si>
@@ -228,7 +193,49 @@
     <t>Mere tid bliver brugt på at skrive de manglende sider</t>
   </si>
   <si>
-    <t>Kunden bliver utildfreds/tid bliver spildt på at rette det</t>
+    <t>Vi må flytte arbejdsplads</t>
+  </si>
+  <si>
+    <t>Kundemøde bliver aflyst én gang</t>
+  </si>
+  <si>
+    <t>En person er fraværende mere end to dage</t>
+  </si>
+  <si>
+    <t>Mere end to personer er fraværende mere end to dage</t>
+  </si>
+  <si>
+    <t>Løsningen lever ikke op til de funktionelle krav</t>
+  </si>
+  <si>
+    <t>Kunden bliver utilfreds</t>
+  </si>
+  <si>
+    <t>gør at der er højere sandsynlighed for at artefaktet er rigtigt. Det andet man kunne gøre er at man giver den videre til et andet gruppe medlem hvis man ikke føler sig sikker på den specifikke artefakt.</t>
+  </si>
+  <si>
+    <t>Vi vil opprioritere kundemøderne, således at vi kan øge chancen for at have en vellykket præsentation. Alle gruoppemedlemmer har adgang til en kopi af prototypen og har mulighed for at kunne fremvise</t>
+  </si>
+  <si>
+    <t>Prototypen kan ikke vises</t>
+  </si>
+  <si>
+    <t>Kunden bliver utildfreds og vi får ikke feedback</t>
+  </si>
+  <si>
+    <t>den. Der vil altid være påvirkningen udefra, som vi ikke kan gøre noget ved, fx hvis screen share på zoom ikke virker, eller zoomserveren går ned. Dette er et forhold som vi må leve med og arbejde ud fra.</t>
+  </si>
+  <si>
+    <t>I dette tilfælde har vi leveret en ufuldstændig løsning. I en reel udviklingssituation ville det betyde, at kunden ikke vil betale for produktet. Her er konsekvensen at vi ikke formår at levere en ordentlig</t>
+  </si>
+  <si>
+    <t>løsning og derfor ikke viser, at vi lever op til de forventede læringsmål for uddannelsen. Dette kan imødekommes ved at afholde mange kundemøder og være nøjagtig og omhyggelig i vores kravindsamling.</t>
+  </si>
+  <si>
+    <t>så er konsekvenserne ret alvorlige. Kunden kunne blive ultilfreds og vælge ikke at fortsætte med gruppen, eller projektet kunne ende med at den ikke opfylder kravene for hvad kunden ville have.</t>
+  </si>
+  <si>
+    <t>Strømafbrydning</t>
   </si>
 </sst>
 </file>
@@ -314,6 +321,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -330,13 +344,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -379,18 +386,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B7A86AE-CE72-42CE-87DB-0EE0AAE96DE3}" name="Tabel1" displayName="Tabel1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H18" xr:uid="{56EEF84A-FD2D-430E-9A18-7622B46BACE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B7A86AE-CE72-42CE-87DB-0EE0AAE96DE3}" name="Tabel1" displayName="Tabel1" ref="A1:H17" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:H17" xr:uid="{56EEF84A-FD2D-430E-9A18-7622B46BACE2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H17">
+    <sortCondition descending="1" ref="E1:E17"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E283995-93CC-4128-B85D-11289FA22121}" name="Risiko"/>
     <tableColumn id="2" xr3:uid="{2888E5BB-3318-40B4-8E4C-DE3DC97886F4}" name="Sandsynlighed i %" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{50180F95-7A5D-4D39-B669-CB0B3452A5F1}" name="Konsekvensskala" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{19838D04-8DD9-4C17-97F2-DD45C57D0544}" name="Konsekvens"/>
-    <tableColumn id="5" xr3:uid="{24DC86E6-C7F8-44FA-80FD-421FB33B937B}" name="Prioritet" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{24DC86E6-C7F8-44FA-80FD-421FB33B937B}" name="Prioritet" dataDxfId="3">
       <calculatedColumnFormula>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{055CFA13-EE44-4699-9029-2CC5013CD0E0}" name="Revideret sandsynlighed" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BA3CB6E1-82CF-4C7E-A32C-7EEECB83BD92}" name="Revideret konsekvens" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{055CFA13-EE44-4699-9029-2CC5013CD0E0}" name="Revideret sandsynlighed" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{BA3CB6E1-82CF-4C7E-A32C-7EEECB83BD92}" name="Revideret konsekvens" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{71034C16-78C2-46E4-8728-94BBA2928E33}" name="Revideret prioritet" dataDxfId="0">
       <calculatedColumnFormula>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</calculatedColumnFormula>
     </tableColumn>
@@ -696,25 +706,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A268E45-2C68-46D3-BBCF-61ECFF0370DE}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,289 +750,289 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.0999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="F3" s="4">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>1.2</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="F4" s="4">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>2</v>
       </c>
       <c r="F5" s="4">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="F7" s="4">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E8" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>1.7999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="4">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
       </c>
       <c r="H8" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.25</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F9" s="4">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
       <c r="H10" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>3.6</v>
+        <v>0.95</v>
       </c>
       <c r="F11" s="4">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="G11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4">
         <v>0.3</v>
@@ -1048,282 +1058,263 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="6">
-        <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>2.0999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B14" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E14" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="4">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="6">
         <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="6">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6">
-        <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>2.0999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="6">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="6">
-        <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="6">
-        <f>SUM(Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]])</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>56</v>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1343,62 +1334,62 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/08 Projekt Management/Risikoanalyse til Fysioapp.xlsx
+++ b/08 Projekt Management/Risikoanalyse til Fysioapp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\OneDrive\IdeaProjects\Foersteaarsprojekt\08 Projekt Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\IdeaProjects\Foersteaarsprojekt\08 Projekt Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{70DDA779-F3BA-44FE-B412-8CB771366CC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{59771D52-11E6-4956-BDDD-40C37DB7B834}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07934620-09A6-4F8E-856B-464013E2759A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC5605DF-97FC-4B92-BFD4-91B241BF52EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC5605DF-97FC-4B92-BFD4-91B241BF52EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -708,23 +710,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A268E45-2C68-46D3-BBCF-61ECFF0370DE}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -778,7 +780,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -806,7 +808,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -834,7 +836,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -862,7 +864,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -890,7 +892,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -918,7 +920,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -946,7 +948,7 @@
         <v>1.0499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -974,7 +976,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1079,7 +1081,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1156,7 +1158,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1177,149 +1179,149 @@
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="85" fitToWidth="2" fitToHeight="2" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1334,9 +1336,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>5</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0</v>
       </c>
